--- a/src/main/java/com/athmatest/qa/testdata/NewPatients.xlsx
+++ b/src/main/java/com/athmatest/qa/testdata/NewPatients.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FF5BF1F6-765E-4853-8A86-3CABD488335E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8B423263-1A85-4034-BF65-D3B5260B74B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{57D98F0B-FDFC-459A-9933-C71305AE025F}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Prefix</t>
   </si>
@@ -47,25 +47,19 @@
     <t>12</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Harish</t>
-  </si>
-  <si>
-    <t>Nomesh</t>
-  </si>
-  <si>
-    <t>Raghul</t>
-  </si>
-  <si>
-    <t>Ranjith</t>
-  </si>
-  <si>
-    <t>Jayanandha</t>
+    <t>Panner</t>
+  </si>
+  <si>
+    <t>Selvam</t>
+  </si>
+  <si>
+    <t>Mani</t>
+  </si>
+  <si>
+    <t>Yadhav</t>
+  </si>
+  <si>
+    <t>Manju</t>
   </si>
 </sst>
 </file>
@@ -448,7 +442,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -462,7 +456,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -471,43 +465,43 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>

--- a/src/main/java/com/athmatest/qa/testdata/NewPatients.xlsx
+++ b/src/main/java/com/athmatest/qa/testdata/NewPatients.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8B423263-1A85-4034-BF65-D3B5260B74B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B20A3C4B-ED72-492E-B1FE-C22B3A80CDA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{57D98F0B-FDFC-459A-9933-C71305AE025F}"/>
   </bookViews>
@@ -47,19 +47,19 @@
     <t>12</t>
   </si>
   <si>
-    <t>Panner</t>
-  </si>
-  <si>
-    <t>Selvam</t>
-  </si>
-  <si>
-    <t>Mani</t>
-  </si>
-  <si>
-    <t>Yadhav</t>
-  </si>
-  <si>
-    <t>Manju</t>
+    <t>Raghav</t>
+  </si>
+  <si>
+    <t>Suman</t>
+  </si>
+  <si>
+    <t>Saritha</t>
+  </si>
+  <si>
+    <t>Shaguni</t>
+  </si>
+  <si>
+    <t>Jayaraaj</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/com/athmatest/qa/testdata/NewPatients.xlsx
+++ b/src/main/java/com/athmatest/qa/testdata/NewPatients.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B20A3C4B-ED72-492E-B1FE-C22B3A80CDA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8B423263-1A85-4034-BF65-D3B5260B74B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{57D98F0B-FDFC-459A-9933-C71305AE025F}"/>
   </bookViews>
@@ -47,19 +47,19 @@
     <t>12</t>
   </si>
   <si>
-    <t>Raghav</t>
-  </si>
-  <si>
-    <t>Suman</t>
-  </si>
-  <si>
-    <t>Saritha</t>
-  </si>
-  <si>
-    <t>Shaguni</t>
-  </si>
-  <si>
-    <t>Jayaraaj</t>
+    <t>Panner</t>
+  </si>
+  <si>
+    <t>Selvam</t>
+  </si>
+  <si>
+    <t>Mani</t>
+  </si>
+  <si>
+    <t>Yadhav</t>
+  </si>
+  <si>
+    <t>Manju</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/com/athmatest/qa/testdata/NewPatients.xlsx
+++ b/src/main/java/com/athmatest/qa/testdata/NewPatients.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8B423263-1A85-4034-BF65-D3B5260B74B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{01966D32-4710-4A6A-A864-89805FED0113}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{57D98F0B-FDFC-459A-9933-C71305AE025F}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Prefix</t>
   </si>
@@ -35,31 +35,40 @@
     <t>zipcode</t>
   </si>
   <si>
-    <t>Mr.</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>560021</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Panner</t>
-  </si>
-  <si>
-    <t>Selvam</t>
-  </si>
-  <si>
-    <t>Mani</t>
-  </si>
-  <si>
-    <t>Yadhav</t>
-  </si>
-  <si>
-    <t>Manju</t>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>Harini</t>
+  </si>
+  <si>
+    <t>Malini</t>
+  </si>
+  <si>
+    <t>Shalini</t>
+  </si>
+  <si>
+    <t>Yamini</t>
+  </si>
+  <si>
+    <t>Ranjini</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
 </sst>
 </file>
@@ -415,7 +424,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,72 +448,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
